--- a/data/raw_data/TN/pop_est_2010-2019_tn.xlsx
+++ b/data/raw_data/TN/pop_est_2010-2019_tn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\TN\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AF242A-C7FE-4598-946C-A7C4493D85B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B725E657-E28B-4A0D-91A8-3514E5D6A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
   <si>
     <t>Tennessee</t>
   </si>
@@ -1750,9 +1750,6 @@
     <t>Union</t>
   </si>
   <si>
-    <t>Van Buren</t>
-  </si>
-  <si>
     <t>Warren</t>
   </si>
   <si>
@@ -1775,6 +1772,9 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>VanBuren</t>
   </si>
 </sst>
 </file>
@@ -2465,7 +2465,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:M100"/>
     </sheetView>
@@ -6616,20 +6616,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2CF23-646B-42F2-B33A-6C673CAF8F03}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -10237,7 +10238,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B89">
         <v>5548</v>
@@ -10278,7 +10279,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90">
         <v>39839</v>
@@ -10319,7 +10320,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91">
         <v>122979</v>
@@ -10360,7 +10361,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92">
         <v>17021</v>
@@ -10401,7 +10402,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93">
         <v>35021</v>
@@ -10442,7 +10443,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94">
         <v>25841</v>
@@ -10483,7 +10484,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95">
         <v>183182</v>
@@ -10524,7 +10525,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>113993</v>
@@ -10561,47 +10562,6 @@
       </c>
       <c r="M96">
         <v>144657</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>6346105</v>
-      </c>
-      <c r="C97">
-        <v>6346276</v>
-      </c>
-      <c r="D97">
-        <v>6355311</v>
-      </c>
-      <c r="E97">
-        <v>6399291</v>
-      </c>
-      <c r="F97">
-        <v>6453898</v>
-      </c>
-      <c r="G97">
-        <v>6494340</v>
-      </c>
-      <c r="H97">
-        <v>6541223</v>
-      </c>
-      <c r="I97">
-        <v>6591170</v>
-      </c>
-      <c r="J97">
-        <v>6646010</v>
-      </c>
-      <c r="K97">
-        <v>6708799</v>
-      </c>
-      <c r="L97">
-        <v>6771631</v>
-      </c>
-      <c r="M97">
-        <v>6829174</v>
       </c>
     </row>
   </sheetData>
